--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -9086,8 +9086,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="8" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="7e3b12c339c1fc16476a95c5bedc287e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7561b06b2475ba99c466591842eff32e" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:element name="properties">
@@ -9105,9 +9105,6 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9167,23 +9164,6 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9305,7 +9285,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66948580-7744-4C06-A20B-D660C1D64B09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A44E514-8F31-4A88-9AC6-30AEEEEDE1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -9086,8 +9086,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="8" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="7e3b12c339c1fc16476a95c5bedc287e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7561b06b2475ba99c466591842eff32e" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:element name="properties">
@@ -9105,6 +9105,9 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9164,6 +9167,23 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9285,22 +9305,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A44E514-8F31-4A88-9AC6-30AEEEEDE1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9213BA-459C-4580-8D08-12097DF8676B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
